--- a/Auction DB Design.xlsx
+++ b/Auction DB Design.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngota\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngota\Documents\GitHub\Auction-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D34FED-5147-4C4B-A0FA-C552A5A40E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39416FD3-86DF-4FF7-8E12-E44FF676E92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
   <si>
     <t>USER MICROSERVICE</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>shipping_cost</t>
+  </si>
+  <si>
+    <t>is_closed</t>
   </si>
 </sst>
 </file>
@@ -518,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -819,10 +822,10 @@
         <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -833,7 +836,7 @@
         <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
         <v>21</v>
@@ -846,6 +849,12 @@
       </c>
       <c r="F13" t="s">
         <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">

--- a/Auction DB Design.xlsx
+++ b/Auction DB Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngota\Documents\GitHub\Auction-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39416FD3-86DF-4FF7-8E12-E44FF676E92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118E6477-6407-45F8-B2D4-76E6E63054B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="65">
   <si>
     <t>USER MICROSERVICE</t>
   </si>
@@ -102,9 +102,6 @@
     <t>quantity</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>DOUBLE</t>
   </si>
   <si>
@@ -174,18 +171,6 @@
     <t>message</t>
   </si>
   <si>
-    <t>TRANSACTION MICROSERVICE</t>
-  </si>
-  <si>
-    <t>TRANSACTION DB</t>
-  </si>
-  <si>
-    <t>transaction_id</t>
-  </si>
-  <si>
-    <t>transaction_date</t>
-  </si>
-  <si>
     <t>is_paid</t>
   </si>
   <si>
@@ -193,6 +178,48 @@
   </si>
   <si>
     <t>is_closed</t>
+  </si>
+  <si>
+    <t>ORDER MICROSERVICE</t>
+  </si>
+  <si>
+    <t>ORDER DB</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>order_date</t>
+  </si>
+  <si>
+    <t>WATCHLIST MICROSERVICE</t>
+  </si>
+  <si>
+    <t>WATCHLIST DB</t>
+  </si>
+  <si>
+    <t>watchlist_id</t>
+  </si>
+  <si>
+    <t>FK watchlist</t>
+  </si>
+  <si>
+    <t>contain_keywords</t>
+  </si>
+  <si>
+    <t>STR (separated by ',')</t>
+  </si>
+  <si>
+    <t>WATCHLIST_AUCTION DB</t>
+  </si>
+  <si>
+    <t>watchlist_auction_id</t>
+  </si>
+  <si>
+    <t>minimum_total_price</t>
+  </si>
+  <si>
+    <t>maximum_total_price</t>
   </si>
 </sst>
 </file>
@@ -519,63 +546,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="M6" sqref="M6:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>36</v>
-      </c>
       <c r="M1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="Q1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="U1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -586,7 +622,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
@@ -595,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
         <v>2</v>
@@ -604,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="N4" t="s">
         <v>2</v>
@@ -613,7 +649,7 @@
         <v>14</v>
       </c>
       <c r="Q4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="R4" t="s">
         <v>2</v>
@@ -621,8 +657,17 @@
       <c r="S4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -630,22 +675,22 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="J5" t="s">
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s">
         <v>23</v>
@@ -654,19 +699,28 @@
         <v>2</v>
       </c>
       <c r="O5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q5" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="R5" t="s">
         <v>2</v>
       </c>
       <c r="S5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -674,34 +728,28 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" t="s">
         <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>47</v>
       </c>
       <c r="R6" t="s">
         <v>2</v>
@@ -709,8 +757,17 @@
       <c r="S6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -718,31 +775,37 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
         <v>2</v>
       </c>
       <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
         <v>41</v>
       </c>
-      <c r="J7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" t="s">
-        <v>53</v>
-      </c>
       <c r="N7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="s">
         <v>48</v>
       </c>
       <c r="R7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -750,65 +813,74 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>54</v>
+      </c>
+      <c r="R8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2</v>
+      <c r="E10" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -816,114 +888,121 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" t="s">
         <v>26</v>
       </c>
-      <c r="I11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="J12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" t="s">
+      <c r="J13" t="s">
         <v>8</v>
       </c>
-      <c r="I13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
         <v>28</v>
       </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="J19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E21" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E23" t="s">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" t="s">
+      <c r="J23" t="s">
         <v>19</v>
       </c>
     </row>
